--- a/data/trans_orig/P33B5_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P33B5_2023-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>39129</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>28980</v>
+        <v>28770</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>53620</v>
+        <v>51918</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05673944977614565</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04202234370702176</v>
+        <v>0.04171849661117735</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07775233961907682</v>
+        <v>0.07528355276850589</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>140</v>
@@ -762,19 +762,19 @@
         <v>75369</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>64138</v>
+        <v>63854</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>88170</v>
+        <v>88806</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1028622163318648</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08753393662496478</v>
+        <v>0.08714569721902889</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1203319106406977</v>
+        <v>0.121200084825771</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>186</v>
@@ -783,19 +783,19 @@
         <v>114499</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>98828</v>
+        <v>97963</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>132194</v>
+        <v>133709</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08049954221025893</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0694818721561075</v>
+        <v>0.06887415000759127</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09294078506028229</v>
+        <v>0.09400542091679411</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>6653</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3399</v>
+        <v>3383</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>11556</v>
+        <v>11754</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.009647222284941063</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.004928094280539483</v>
+        <v>0.004905848323691323</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01675703987454806</v>
+        <v>0.01704380516134809</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>52</v>
@@ -833,19 +833,19 @@
         <v>26830</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>20154</v>
+        <v>19997</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>35690</v>
+        <v>35338</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.03661651307844959</v>
+        <v>0.03661651307844958</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02750513571290676</v>
+        <v>0.02729197228853161</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04870852195577872</v>
+        <v>0.04822789490070317</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>63</v>
@@ -854,19 +854,19 @@
         <v>33483</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>25793</v>
+        <v>25219</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>43527</v>
+        <v>42996</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02354042275812009</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01813387246239849</v>
+        <v>0.01773055424099272</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03060247987109743</v>
+        <v>0.03022905377721735</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>42122</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>31493</v>
+        <v>31702</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>56231</v>
+        <v>57235</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.06107958813901408</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.04566733027122099</v>
+        <v>0.04596965565181049</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.08153753302061474</v>
+        <v>0.0829936066645013</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>152</v>
@@ -904,19 +904,19 @@
         <v>69893</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>59203</v>
+        <v>59771</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>81465</v>
+        <v>82545</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.0953885510657778</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.0807992735132316</v>
+        <v>0.08157363118128266</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1111812627414228</v>
+        <v>0.1126559217685257</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>205</v>
@@ -925,19 +925,19 @@
         <v>112015</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>96686</v>
+        <v>97464</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>130183</v>
+        <v>130565</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.0787538126344957</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.06797629747631197</v>
+        <v>0.06852298519943492</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.09152668918756172</v>
+        <v>0.09179495233427563</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>601724</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>581378</v>
+        <v>581248</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>617285</v>
+        <v>616778</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.8725337397998991</v>
+        <v>0.8725337397998992</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8430311367887334</v>
+        <v>0.8428434725118458</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8950982719687643</v>
+        <v>0.8943637117788015</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>894</v>
@@ -975,19 +975,19 @@
         <v>560630</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>543634</v>
+        <v>541735</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>577096</v>
+        <v>576904</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.7651327195239079</v>
+        <v>0.7651327195239078</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7419371275853613</v>
+        <v>0.7393455687385231</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7876053719291356</v>
+        <v>0.7873430650553854</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1513</v>
@@ -996,19 +996,19 @@
         <v>1162353</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1137437</v>
+        <v>1136275</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1185721</v>
+        <v>1187367</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8172062223971253</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7996882110498962</v>
+        <v>0.7988715588566495</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8336351143476746</v>
+        <v>0.8347923465016179</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>46070</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>33682</v>
+        <v>33287</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>60927</v>
+        <v>62712</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.04392103694137433</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.03211112944607462</v>
+        <v>0.03173490321575723</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.05808600903462294</v>
+        <v>0.0597875125746414</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>149</v>
@@ -1121,19 +1121,19 @@
         <v>92929</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>79261</v>
+        <v>78056</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>109168</v>
+        <v>107574</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.08678171842493196</v>
+        <v>0.08678171842493197</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.07401807089983337</v>
+        <v>0.07289266304509007</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1019465082576592</v>
+        <v>0.1004576241773435</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>203</v>
@@ -1142,19 +1142,19 @@
         <v>138999</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>118807</v>
+        <v>119767</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>159255</v>
+        <v>158241</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.06557299388924726</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.05604738616978365</v>
+        <v>0.056500620755555</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.07512884476610508</v>
+        <v>0.07465056668372134</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>15267</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9711</v>
+        <v>9347</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>23826</v>
+        <v>25091</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01455539146837389</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.009258100272791539</v>
+        <v>0.008910912554698915</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02271447550727171</v>
+        <v>0.02392065352509039</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>73</v>
@@ -1192,19 +1192,19 @@
         <v>42941</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>33404</v>
+        <v>33711</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>53833</v>
+        <v>53187</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.04010061191499219</v>
+        <v>0.04010061191499218</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03119420929727064</v>
+        <v>0.03148059532726756</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05027199691749537</v>
+        <v>0.04966877622360537</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>92</v>
@@ -1213,19 +1213,19 @@
         <v>58209</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>47374</v>
+        <v>47514</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>71555</v>
+        <v>70786</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02746008626531234</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02234862162946223</v>
+        <v>0.02241469057854175</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03375630994058058</v>
+        <v>0.03339342914119774</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>77505</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>61874</v>
+        <v>60911</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>93868</v>
+        <v>95839</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.07389057759178914</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.05898818451259388</v>
+        <v>0.05806999651005462</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.08949067029935927</v>
+        <v>0.09136953125967215</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>190</v>
@@ -1263,19 +1263,19 @@
         <v>109288</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>94856</v>
+        <v>95163</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>126400</v>
+        <v>124905</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.102058189825395</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.08858151366615989</v>
+        <v>0.08886796492563877</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1180384811451275</v>
+        <v>0.1166420254419751</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>277</v>
@@ -1284,19 +1284,19 @@
         <v>186793</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>165559</v>
+        <v>165766</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>211781</v>
+        <v>209084</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.08812002766808757</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.07810269827844511</v>
+        <v>0.0782007224846773</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.09990817738176033</v>
+        <v>0.09863609985402673</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>910075</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>888624</v>
+        <v>886683</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>930774</v>
+        <v>930652</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8676329939984627</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.84718194129998</v>
+        <v>0.8453316974968587</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8873663605307778</v>
+        <v>0.8872506150929254</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1104</v>
@@ -1334,19 +1334,19 @@
         <v>825680</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>802591</v>
+        <v>804728</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>846158</v>
+        <v>846338</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.7710594798346808</v>
+        <v>0.7710594798346809</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7494979222242601</v>
+        <v>0.7514938922844789</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.790182762299695</v>
+        <v>0.7903511931575271</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1908</v>
@@ -1355,19 +1355,19 @@
         <v>1735755</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1704929</v>
+        <v>1706825</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1768948</v>
+        <v>1768449</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8188468921773528</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8043046603568479</v>
+        <v>0.8051994168337007</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8345056907710408</v>
+        <v>0.8342705344219339</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>27891</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>19287</v>
+        <v>19063</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>39948</v>
+        <v>40098</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.03477366138824769</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02404550208482718</v>
+        <v>0.023767052661219</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04980572322177256</v>
+        <v>0.04999186551370911</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>73</v>
@@ -1480,19 +1480,19 @@
         <v>54768</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>42809</v>
+        <v>43359</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>69004</v>
+        <v>69868</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.06753211282026261</v>
+        <v>0.06753211282026263</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.05278525663499001</v>
+        <v>0.05346349854627738</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.08508582658194648</v>
+        <v>0.08615095213419577</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>103</v>
@@ -1501,19 +1501,19 @@
         <v>82660</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>65830</v>
+        <v>66970</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>100000</v>
+        <v>100888</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.0512433429489522</v>
+        <v>0.05124334294895221</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.04081007067371812</v>
+        <v>0.0415167849287932</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.06199299032576382</v>
+        <v>0.06254369909649823</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>19556</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>12499</v>
+        <v>12368</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>29609</v>
+        <v>29564</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.02438172057107373</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.01558280605601186</v>
+        <v>0.01542041519561691</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.03691513321329141</v>
+        <v>0.03685944737229386</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>52</v>
@@ -1551,19 +1551,19 @@
         <v>37606</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>28717</v>
+        <v>28662</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>50330</v>
+        <v>48512</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.04637035739078133</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.03540963221135836</v>
+        <v>0.03534235636879732</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.06205986980433382</v>
+        <v>0.05981773360881251</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>72</v>
@@ -1572,19 +1572,19 @@
         <v>57162</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>44288</v>
+        <v>44304</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>71416</v>
+        <v>72623</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.03543675615864245</v>
+        <v>0.03543675615864246</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.02745534262772071</v>
+        <v>0.02746541062956743</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.04427328677712012</v>
+        <v>0.04502113485865959</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>47653</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>34054</v>
+        <v>34258</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>64344</v>
+        <v>65136</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0594118893794934</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0424566506189596</v>
+        <v>0.04271167956780662</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08022058102413675</v>
+        <v>0.08120833095547798</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>81</v>
@@ -1622,19 +1622,19 @@
         <v>59509</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>47713</v>
+        <v>46929</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>74939</v>
+        <v>72891</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07337752822812514</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05883306369618221</v>
+        <v>0.05786657111558233</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09240405233032521</v>
+        <v>0.08987836654058044</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>124</v>
@@ -1643,19 +1643,19 @@
         <v>107162</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>89405</v>
+        <v>89259</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>128903</v>
+        <v>131410</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06643327209369521</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05542519208261333</v>
+        <v>0.05533451657108466</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07991116683153827</v>
+        <v>0.08146514602013587</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>706985</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>685256</v>
+        <v>685674</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>724148</v>
+        <v>726386</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.881432728661185</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8543424316477067</v>
+        <v>0.8548633322797451</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9028309628229841</v>
+        <v>0.9056216626928415</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>839</v>
@@ -1693,19 +1693,19 @@
         <v>659111</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>635271</v>
+        <v>639750</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>676147</v>
+        <v>678350</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8127200015608309</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7833244455904144</v>
+        <v>0.7888472359558963</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8337257028027986</v>
+        <v>0.8364420923847457</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1421</v>
@@ -1714,19 +1714,19 @@
         <v>1366095</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1336187</v>
+        <v>1337778</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1392194</v>
+        <v>1395521</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.84688662879871</v>
+        <v>0.8468866287987104</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8283456493241345</v>
+        <v>0.82933207771704</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8630660217841759</v>
+        <v>0.8651285085606165</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>59442</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>46920</v>
+        <v>47135</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>74478</v>
+        <v>75729</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06003894459145299</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04739110829097803</v>
+        <v>0.04760828394650037</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07522579754156085</v>
+        <v>0.07648890680977487</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>171</v>
@@ -1839,19 +1839,19 @@
         <v>110082</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>94370</v>
+        <v>93948</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>127749</v>
+        <v>127501</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.09843548288280604</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.08438576030217843</v>
+        <v>0.08400837303505516</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1142328160521864</v>
+        <v>0.1140108909185014</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>244</v>
@@ -1860,19 +1860,19 @@
         <v>169525</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>148501</v>
+        <v>148753</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>191841</v>
+        <v>192281</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.08040507743923489</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.07043362891796875</v>
+        <v>0.07055301321910611</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09098983739195095</v>
+        <v>0.09119850612047017</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>23567</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>15767</v>
+        <v>15367</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>36749</v>
+        <v>35356</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02380388163689023</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01592526967292351</v>
+        <v>0.01552087795626188</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03711768160318465</v>
+        <v>0.03571122309105536</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>53</v>
@@ -1910,19 +1910,19 @@
         <v>33710</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>25610</v>
+        <v>25595</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>45309</v>
+        <v>44916</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0301436286129412</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02290056889015044</v>
+        <v>0.02288740407534432</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04051551871338656</v>
+        <v>0.04016375843464615</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>82</v>
@@ -1931,19 +1931,19 @@
         <v>57278</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>44845</v>
+        <v>45804</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>73520</v>
+        <v>74260</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.02716658397624811</v>
+        <v>0.02716658397624812</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02127000937549371</v>
+        <v>0.02172485927392786</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03487045833128909</v>
+        <v>0.03522152001229516</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>60770</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>48284</v>
+        <v>47441</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>76799</v>
+        <v>76733</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.06137990396987261</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.04876848675523991</v>
+        <v>0.04791754563133507</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.07756980206253659</v>
+        <v>0.07750354890445882</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>159</v>
@@ -1981,19 +1981,19 @@
         <v>97149</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>82723</v>
+        <v>82438</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>114543</v>
+        <v>113540</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.08687029973863088</v>
+        <v>0.0868702997386309</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.0739707310690943</v>
+        <v>0.07371621533421271</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1024245095973604</v>
+        <v>0.101527445375164</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>229</v>
@@ -2002,19 +2002,19 @@
         <v>157919</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>137912</v>
+        <v>138888</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>181578</v>
+        <v>181192</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.07490041414268629</v>
+        <v>0.07490041414268628</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.06541125278003017</v>
+        <v>0.06587405689959959</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.08612204373658226</v>
+        <v>0.08593915330644018</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>846282</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>822293</v>
+        <v>821486</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>866340</v>
+        <v>865541</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8547772698017841</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8305468453880425</v>
+        <v>0.8297316284683435</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8750362523899827</v>
+        <v>0.8742291263794068</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1178</v>
@@ -2052,19 +2052,19 @@
         <v>877378</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>850984</v>
+        <v>854287</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>898831</v>
+        <v>900265</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.7845505887656219</v>
+        <v>0.7845505887656218</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7609493831472309</v>
+        <v>0.7639026425188298</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8037342586914181</v>
+        <v>0.8050165302916298</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2012</v>
@@ -2073,19 +2073,19 @@
         <v>1723660</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1690347</v>
+        <v>1690717</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1754567</v>
+        <v>1753462</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8175279244418308</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8017275847498394</v>
+        <v>0.8019031995095853</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8321866637306937</v>
+        <v>0.8316626489530388</v>
       </c>
     </row>
     <row r="23">
@@ -2177,19 +2177,19 @@
         <v>172532</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>149499</v>
+        <v>150048</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>197466</v>
+        <v>200839</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.04886643711933661</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.04234281677366329</v>
+        <v>0.04249811516494622</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.05592849082453459</v>
+        <v>0.05688378168231365</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>533</v>
@@ -2198,19 +2198,19 @@
         <v>333149</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>303753</v>
+        <v>305787</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>360946</v>
+        <v>364626</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.08924733764297782</v>
+        <v>0.08924733764297781</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.0813723168192271</v>
+        <v>0.08191744692324454</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.09669394483243431</v>
+        <v>0.09767958991812284</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>736</v>
@@ -2219,19 +2219,19 @@
         <v>505681</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>466862</v>
+        <v>469621</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>547502</v>
+        <v>545463</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.06961888422047754</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.06427447587132869</v>
+        <v>0.06465427983894033</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.07537652540486627</v>
+        <v>0.07509574853258745</v>
       </c>
     </row>
     <row r="25">
@@ -2248,19 +2248,19 @@
         <v>65044</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>52302</v>
+        <v>51183</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>83490</v>
+        <v>81454</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01842243079680073</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01481346765052791</v>
+        <v>0.01449648490077172</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02364700176898017</v>
+        <v>0.02307024542996495</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>230</v>
@@ -2269,19 +2269,19 @@
         <v>141087</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>121649</v>
+        <v>123811</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>161467</v>
+        <v>161001</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03779589062280903</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03258849899837593</v>
+        <v>0.03316773547906216</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04325546628031161</v>
+        <v>0.04313046702782954</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>309</v>
@@ -2290,19 +2290,19 @@
         <v>206131</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>182640</v>
+        <v>183535</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>230911</v>
+        <v>233457</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.02837878875295716</v>
+        <v>0.02837878875295715</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02514473176998474</v>
+        <v>0.02526783390049835</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03179029949372737</v>
+        <v>0.03214083822402205</v>
       </c>
     </row>
     <row r="26">
@@ -2319,19 +2319,19 @@
         <v>228051</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>201962</v>
+        <v>201799</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>259658</v>
+        <v>258633</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.0645908993858202</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.05720183343190734</v>
+        <v>0.05715552165040683</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.07354293755091827</v>
+        <v>0.07325284505302526</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>582</v>
@@ -2340,19 +2340,19 @@
         <v>335839</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>310146</v>
+        <v>308268</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>365520</v>
+        <v>364101</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.08996784031601962</v>
+        <v>0.08996784031601961</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.08308501803374528</v>
+        <v>0.08258187156024628</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.09791919623569414</v>
+        <v>0.09753920518478132</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>835</v>
@@ -2361,19 +2361,19 @@
         <v>563889</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>525678</v>
+        <v>523657</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>607689</v>
+        <v>603087</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.07763255069655364</v>
+        <v>0.07763255069655363</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.07237186985640735</v>
+        <v>0.07209372618635267</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.08366259311844754</v>
+        <v>0.08302899819761399</v>
       </c>
     </row>
     <row r="27">
@@ -2390,19 +2390,19 @@
         <v>3065066</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>3019790</v>
+        <v>3024151</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>3103794</v>
+        <v>3103369</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.8681202326980425</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.8552966181009051</v>
+        <v>0.8565317585411141</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.8790890977756893</v>
+        <v>0.8789686735404144</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>4015</v>
@@ -2411,19 +2411,19 @@
         <v>2922798</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>2876007</v>
+        <v>2878195</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>2963417</v>
+        <v>2964067</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.7829889314181935</v>
+        <v>0.7829889314181934</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.7704539241669758</v>
+        <v>0.7710401160576866</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.7938703829478587</v>
+        <v>0.7940445144877792</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>6854</v>
@@ -2432,19 +2432,19 @@
         <v>5987863</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>5930835</v>
+        <v>5931726</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>6040136</v>
+        <v>6045508</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.8243697763300118</v>
+        <v>0.8243697763300117</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.8165185343779093</v>
+        <v>0.8166410868833842</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.8315663617291668</v>
+        <v>0.8323058641075587</v>
       </c>
     </row>
     <row r="28">
